--- a/reporte_respuestas.xlsx
+++ b/reporte_respuestas.xlsx
@@ -424,23 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Respuesta</t>
+          <t>Rut</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Cantidad</t>
+          <t>¿De donde eres?</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18880177-3</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Puente Alto</t>
         </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
